--- a/data/WHCV_JHU.xlsx
+++ b/data/WHCV_JHU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23C7D5A-6673-4AC0-865B-B596C543EF4C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773BA082-650F-473A-955F-366E23FBDF6D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="18" activeTab="24" xr2:uid="{C05C9B9F-81A4-419D-958C-8C1C2703C4D9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="18" activeTab="25" xr2:uid="{C05C9B9F-81A4-419D-958C-8C1C2703C4D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan22_12am" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,7 @@
     <sheet name="Jan31_7pm" sheetId="24" r:id="rId23"/>
     <sheet name="Feb01_10am" sheetId="25" r:id="rId24"/>
     <sheet name="Feb01_6pm" sheetId="26" r:id="rId25"/>
+    <sheet name="Feb01_11pm" sheetId="27" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="88">
   <si>
     <t>Last Update</t>
   </si>
@@ -13153,10 +13154,14 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -14134,13 +14139,1338 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565CA8E8-8836-49BB-9519-C30D737874C2}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43862.495138888888</v>
+      </c>
+      <c r="D2">
+        <v>7153</v>
+      </c>
+      <c r="E2">
+        <v>249</v>
+      </c>
+      <c r="F2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43862.453472222223</v>
+      </c>
+      <c r="D3">
+        <v>599</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43862.599305555559</v>
+      </c>
+      <c r="D4">
+        <v>535</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D5">
+        <v>422</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43862.460416666669</v>
+      </c>
+      <c r="D6">
+        <v>389</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43862.564583333333</v>
+      </c>
+      <c r="D7">
+        <v>297</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D8">
+        <v>286</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43862.363194444442</v>
+      </c>
+      <c r="D9">
+        <v>247</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D10">
+        <v>207</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43862.32708333333</v>
+      </c>
+      <c r="D11">
+        <v>206</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43862.585416666669</v>
+      </c>
+      <c r="D12">
+        <v>202</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43862.253472222219</v>
+      </c>
+      <c r="D13">
+        <v>169</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43862.386805555558</v>
+      </c>
+      <c r="D14">
+        <v>168</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43862.234027777777</v>
+      </c>
+      <c r="D15">
+        <v>144</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43862.234027777777</v>
+      </c>
+      <c r="D16">
+        <v>101</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D18">
+        <v>96</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43862.661805555559</v>
+      </c>
+      <c r="D19">
+        <v>93</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43862.439583333333</v>
+      </c>
+      <c r="D20">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43862.640972222223</v>
+      </c>
+      <c r="D21">
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43862.363194444442</v>
+      </c>
+      <c r="D22">
+        <v>62</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D23">
+        <v>47</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43862.654861111114</v>
+      </c>
+      <c r="D24">
+        <v>41</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43862.654861111114</v>
+      </c>
+      <c r="D25">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43861.638888888891</v>
+      </c>
+      <c r="D26">
+        <v>29</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43862.092361111114</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43862.234027777777</v>
+      </c>
+      <c r="D28">
+        <v>23</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43862.786805555559</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43861.442361111112</v>
+      </c>
+      <c r="D30">
+        <v>19</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43862.234027777777</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D32">
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43862.234027777777</v>
+      </c>
+      <c r="D33">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43862.234027777777</v>
+      </c>
+      <c r="D34">
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43862.446527777778</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43861.638888888891</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43862.234027777777</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43862.772916666669</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43862.318055555559</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43861.675694444442</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43862.738194444442</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43862.092361111114</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43862.092361111114</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AE5BBF-4610-4460-8D40-B9A169C1CD16}">
+  <dimension ref="A1:F68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">

--- a/data/WHCV_JHU.xlsx
+++ b/data/WHCV_JHU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773BA082-650F-473A-955F-366E23FBDF6D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379FF7DC-3828-42D6-9845-44117AF87057}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="18" activeTab="25" xr2:uid="{C05C9B9F-81A4-419D-958C-8C1C2703C4D9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="25" activeTab="29" xr2:uid="{C05C9B9F-81A4-419D-958C-8C1C2703C4D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan22_12am" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,10 @@
     <sheet name="Feb01_10am" sheetId="25" r:id="rId24"/>
     <sheet name="Feb01_6pm" sheetId="26" r:id="rId25"/>
     <sheet name="Feb01_11pm" sheetId="27" r:id="rId26"/>
+    <sheet name="Feb02_5am" sheetId="28" r:id="rId27"/>
+    <sheet name="Feb02_745pm" sheetId="29" r:id="rId28"/>
+    <sheet name="Feb02_9pm" sheetId="31" r:id="rId29"/>
+    <sheet name="Feb03_1230pm" sheetId="30" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="89">
   <si>
     <t>Last Update</t>
   </si>
@@ -320,6 +324,9 @@
   </si>
   <si>
     <t>Tempe, AZ</t>
+  </si>
+  <si>
+    <t>San Benito, CA</t>
   </si>
 </sst>
 </file>
@@ -15459,8 +15466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AE5BBF-4610-4460-8D40-B9A169C1CD16}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16716,6 +16723,3970 @@
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>85</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83FC936-7F96-47C7-9871-69EBBD57BEB9}">
+  <dimension ref="A1:F68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43863.988194444442</v>
+      </c>
+      <c r="D2">
+        <v>11177</v>
+      </c>
+      <c r="E2">
+        <v>350</v>
+      </c>
+      <c r="F2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D3">
+        <v>661</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D4">
+        <v>632</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D5">
+        <v>493</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D6">
+        <v>463</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D7">
+        <v>340</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D8">
+        <v>333</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43863.981249999997</v>
+      </c>
+      <c r="D9">
+        <v>300</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D10">
+        <v>236</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D11">
+        <v>231</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D12">
+        <v>230</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43864.002083333333</v>
+      </c>
+      <c r="D13">
+        <v>193</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43863.363194444442</v>
+      </c>
+      <c r="D14">
+        <v>191</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43863.154861111114</v>
+      </c>
+      <c r="D15">
+        <v>159</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43864.009027777778</v>
+      </c>
+      <c r="D16">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43863.140972222223</v>
+      </c>
+      <c r="D17">
+        <v>116</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43864.015972222223</v>
+      </c>
+      <c r="D18">
+        <v>113</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D19">
+        <v>105</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43863.140972222223</v>
+      </c>
+      <c r="D20">
+        <v>95</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D21">
+        <v>70</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43863.974305555559</v>
+      </c>
+      <c r="D22">
+        <v>66</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D23">
+        <v>64</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43863.988194444442</v>
+      </c>
+      <c r="D24">
+        <v>51</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43863.404861111114</v>
+      </c>
+      <c r="D25">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43863.043749999997</v>
+      </c>
+      <c r="D26">
+        <v>38</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43863.071527777778</v>
+      </c>
+      <c r="D27">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43863.154861111114</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43863.106249999997</v>
+      </c>
+      <c r="D29">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43863.029861111114</v>
+      </c>
+      <c r="D30">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43862.786805555559</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43862.786805555559</v>
+      </c>
+      <c r="D32">
+        <v>19</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43863.043749999997</v>
+      </c>
+      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43863.995138888888</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43863.099305555559</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43863.231249999997</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43862.786805555559</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43863.182638888888</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43862.318055555559</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43863.238194444442</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43863.939583333333</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43863.939583333333</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43863.252083333333</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43863.147916666669</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43862.786805555559</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43862.988194444442</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43862.092361111114</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E77B568-AEE8-4269-AFA8-4F9573EBA4F9}">
+  <dimension ref="A1:F68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43863.988194444442</v>
+      </c>
+      <c r="D2">
+        <v>11177</v>
+      </c>
+      <c r="E2">
+        <v>350</v>
+      </c>
+      <c r="F2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D3">
+        <v>661</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D4">
+        <v>632</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D5">
+        <v>493</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D6">
+        <v>463</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D7">
+        <v>340</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D8">
+        <v>333</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43863.981249999997</v>
+      </c>
+      <c r="D9">
+        <v>300</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D10">
+        <v>236</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D11">
+        <v>231</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D12">
+        <v>230</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43864.002083333333</v>
+      </c>
+      <c r="D13">
+        <v>193</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43863.363194444442</v>
+      </c>
+      <c r="D14">
+        <v>191</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43863.154861111114</v>
+      </c>
+      <c r="D15">
+        <v>159</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43864.009027777778</v>
+      </c>
+      <c r="D16">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43863.140972222223</v>
+      </c>
+      <c r="D17">
+        <v>116</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43864.015972222223</v>
+      </c>
+      <c r="D18">
+        <v>113</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D19">
+        <v>105</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43863.140972222223</v>
+      </c>
+      <c r="D20">
+        <v>95</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D21">
+        <v>70</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43863.974305555559</v>
+      </c>
+      <c r="D22">
+        <v>66</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D23">
+        <v>64</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43863.988194444442</v>
+      </c>
+      <c r="D24">
+        <v>51</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43863.404861111114</v>
+      </c>
+      <c r="D25">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43863.043749999997</v>
+      </c>
+      <c r="D26">
+        <v>38</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43863.071527777778</v>
+      </c>
+      <c r="D27">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43863.154861111114</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43863.106249999997</v>
+      </c>
+      <c r="D29">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43863.029861111114</v>
+      </c>
+      <c r="D30">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43862.786805555559</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43862.786805555559</v>
+      </c>
+      <c r="D32">
+        <v>19</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43863.043749999997</v>
+      </c>
+      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43863.995138888888</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43863.099305555559</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43863.231249999997</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43862.786805555559</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43863.182638888888</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43862.318055555559</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43863.238194444442</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43863.939583333333</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43863.939583333333</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43863.252083333333</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43863.147916666669</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43862.786805555559</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43862.988194444442</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43862.092361111114</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43863.821527777778</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABD2AD7-C8B8-4627-BCA9-58FE1305DC1E}">
+  <dimension ref="A1:F68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43863.988194444442</v>
+      </c>
+      <c r="D2">
+        <v>11177</v>
+      </c>
+      <c r="E2">
+        <v>350</v>
+      </c>
+      <c r="F2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43864.064583333333</v>
+      </c>
+      <c r="D3">
+        <v>724</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43864.064583333333</v>
+      </c>
+      <c r="D4">
+        <v>683</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43864.043749999997</v>
+      </c>
+      <c r="D5">
+        <v>566</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43864.064583333333</v>
+      </c>
+      <c r="D6">
+        <v>521</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43864.036805555559</v>
+      </c>
+      <c r="D7">
+        <v>408</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43864.064583333333</v>
+      </c>
+      <c r="D8">
+        <v>391</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43863.981249999997</v>
+      </c>
+      <c r="D9">
+        <v>300</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43864.043749999997</v>
+      </c>
+      <c r="D10">
+        <v>271</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43864.043749999997</v>
+      </c>
+      <c r="D11">
+        <v>254</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43864.050694444442</v>
+      </c>
+      <c r="D12">
+        <v>246</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43864.002083333333</v>
+      </c>
+      <c r="D13">
+        <v>193</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43863.363194444442</v>
+      </c>
+      <c r="D14">
+        <v>191</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43863.154861111114</v>
+      </c>
+      <c r="D15">
+        <v>159</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43864.009027777778</v>
+      </c>
+      <c r="D16">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43863.140972222223</v>
+      </c>
+      <c r="D17">
+        <v>116</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43864.015972222223</v>
+      </c>
+      <c r="D18">
+        <v>113</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D19">
+        <v>105</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43863.140972222223</v>
+      </c>
+      <c r="D20">
+        <v>95</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43864.029861111114</v>
+      </c>
+      <c r="D21">
+        <v>71</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D22">
+        <v>70</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43863.974305555559</v>
+      </c>
+      <c r="D23">
+        <v>66</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43863.988194444442</v>
+      </c>
+      <c r="D24">
+        <v>51</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43863.404861111114</v>
+      </c>
+      <c r="D25">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43864.043749999997</v>
+      </c>
+      <c r="D26">
+        <v>46</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43864.036805555559</v>
+      </c>
+      <c r="D27">
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43863.071527777778</v>
+      </c>
+      <c r="D28">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43863.154861111114</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43864.050694444442</v>
+      </c>
+      <c r="D30">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43862.786805555559</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43861.442361111112</v>
+      </c>
+      <c r="D32">
+        <v>19</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43863.043749999997</v>
+      </c>
+      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43863.995138888888</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43863.099305555559</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43863.231249999997</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43861.638888888891</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43863.182638888888</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43862.318055555559</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43863.238194444442</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43863.939583333333</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43863.939583333333</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43863.252083333333</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43863.147916666669</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43861.675694444442</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43864.029861111114</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43862.988194444442</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43862.092361111114</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>84</v>
       </c>
       <c r="B66" t="s">
         <v>73</v>
@@ -17426,6 +21397,1348 @@
         <v>43853.5</v>
       </c>
       <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35902FC6-F925-4809-AAD5-E034459D6B8F}">
+  <dimension ref="A1:F69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43864.564583333333</v>
+      </c>
+      <c r="D2">
+        <v>11177</v>
+      </c>
+      <c r="E2">
+        <v>350</v>
+      </c>
+      <c r="F2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43864.536805555559</v>
+      </c>
+      <c r="D3">
+        <v>725</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43864.564583333333</v>
+      </c>
+      <c r="D4">
+        <v>724</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43864.71597222222</v>
+      </c>
+      <c r="D5">
+        <v>566</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43864.460416666669</v>
+      </c>
+      <c r="D6">
+        <v>521</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43864.71597222222</v>
+      </c>
+      <c r="D7">
+        <v>408</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43864.064583333333</v>
+      </c>
+      <c r="D8">
+        <v>391</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43864.356249999997</v>
+      </c>
+      <c r="D9">
+        <v>312</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43864.460416666669</v>
+      </c>
+      <c r="D10">
+        <v>271</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43864.71597222222</v>
+      </c>
+      <c r="D11">
+        <v>259</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43864.474305555559</v>
+      </c>
+      <c r="D12">
+        <v>254</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43864.390972222223</v>
+      </c>
+      <c r="D13">
+        <v>212</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43864.293749999997</v>
+      </c>
+      <c r="D14">
+        <v>203</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43864.481249999997</v>
+      </c>
+      <c r="D15">
+        <v>179</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43864.106249999997</v>
+      </c>
+      <c r="D16">
+        <v>128</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43864.522916666669</v>
+      </c>
+      <c r="D17">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43864.300694444442</v>
+      </c>
+      <c r="D18">
+        <v>121</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43864.536805555559</v>
+      </c>
+      <c r="D19">
+        <v>114</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43864.015972222223</v>
+      </c>
+      <c r="D20">
+        <v>113</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43864.71597222222</v>
+      </c>
+      <c r="D21">
+        <v>74</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43864.71597222222</v>
+      </c>
+      <c r="D22">
+        <v>72</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43864.140972222223</v>
+      </c>
+      <c r="D23">
+        <v>66</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43864.578472222223</v>
+      </c>
+      <c r="D24">
+        <v>60</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43863.988194444442</v>
+      </c>
+      <c r="D25">
+        <v>51</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43864.043749999997</v>
+      </c>
+      <c r="D26">
+        <v>46</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43864.127083333333</v>
+      </c>
+      <c r="D27">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43864.036805555559</v>
+      </c>
+      <c r="D28">
+        <v>31</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43864.356249999997</v>
+      </c>
+      <c r="D29">
+        <v>31</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43864.050694444442</v>
+      </c>
+      <c r="D30">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43862.786805555559</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43861.442361111112</v>
+      </c>
+      <c r="D32">
+        <v>19</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43863.043749999997</v>
+      </c>
+      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43863.995138888888</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43863.099305555559</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43864.113194444442</v>
+      </c>
+      <c r="D36">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43863.752083333333</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43861.638888888891</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43863.182638888888</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43862.318055555559</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43863.238194444442</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43863.939583333333</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43863.939583333333</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43863.252083333333</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43863.147916666669</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43861.675694444442</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43864.161805555559</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43864.029861111114</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43862.988194444442</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43862.092361111114</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
         <v>0</v>
       </c>
     </row>

--- a/data/WHCV_JHU.xlsx
+++ b/data/WHCV_JHU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379FF7DC-3828-42D6-9845-44117AF87057}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0CE706-04DC-439E-967D-384C054E8775}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="25" activeTab="29" xr2:uid="{C05C9B9F-81A4-419D-958C-8C1C2703C4D9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="26" activeTab="32" xr2:uid="{C05C9B9F-81A4-419D-958C-8C1C2703C4D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan22_12am" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,9 @@
     <sheet name="Feb02_745pm" sheetId="29" r:id="rId28"/>
     <sheet name="Feb02_9pm" sheetId="31" r:id="rId29"/>
     <sheet name="Feb03_1230pm" sheetId="30" r:id="rId30"/>
+    <sheet name="Feb03_940pm" sheetId="32" r:id="rId31"/>
+    <sheet name="Feb04_8am" sheetId="33" r:id="rId32"/>
+    <sheet name="Feb04_1150am" sheetId="34" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="92">
   <si>
     <t>Last Update</t>
   </si>
@@ -327,6 +330,15 @@
   </si>
   <si>
     <t>San Benito, CA</t>
+  </si>
+  <si>
+    <t>Toronto, ON</t>
+  </si>
+  <si>
+    <t>London, ON</t>
+  </si>
+  <si>
+    <t>Belgium</t>
   </si>
 </sst>
 </file>
@@ -19430,8 +19442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABD2AD7-C8B8-4627-BCA9-58FE1305DC1E}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F68"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21409,8 +21421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35902FC6-F925-4809-AAD5-E034459D6B8F}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22739,6 +22751,4111 @@
         <v>0</v>
       </c>
       <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78525FF-17BE-49F0-A88B-ACE5410CD605}">
+  <dimension ref="A1:F70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43865.057638888888</v>
+      </c>
+      <c r="D2">
+        <v>13522</v>
+      </c>
+      <c r="E2">
+        <v>414</v>
+      </c>
+      <c r="F2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43865.071527777778</v>
+      </c>
+      <c r="D3">
+        <v>829</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43865.071527777778</v>
+      </c>
+      <c r="D4">
+        <v>797</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43865.057638888888</v>
+      </c>
+      <c r="D5">
+        <v>675</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43865.071527777778</v>
+      </c>
+      <c r="D6">
+        <v>593</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43865.029861111114</v>
+      </c>
+      <c r="D7">
+        <v>480</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43865.071527777778</v>
+      </c>
+      <c r="D8">
+        <v>476</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43864.988194444442</v>
+      </c>
+      <c r="D9">
+        <v>337</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43865.043749999997</v>
+      </c>
+      <c r="D10">
+        <v>308</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43865.071527777778</v>
+      </c>
+      <c r="D11">
+        <v>282</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43865.036805555559</v>
+      </c>
+      <c r="D12">
+        <v>270</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43864.390972222223</v>
+      </c>
+      <c r="D13">
+        <v>212</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43865.009027777778</v>
+      </c>
+      <c r="D14">
+        <v>208</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43864.481249999997</v>
+      </c>
+      <c r="D15">
+        <v>179</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43865.036805555559</v>
+      </c>
+      <c r="D16">
+        <v>155</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43865.106249999997</v>
+      </c>
+      <c r="D17">
+        <v>142</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43865.022916666669</v>
+      </c>
+      <c r="D18">
+        <v>139</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43865.015972222223</v>
+      </c>
+      <c r="D19">
+        <v>126</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43864.974305555559</v>
+      </c>
+      <c r="D20">
+        <v>117</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43865.029861111114</v>
+      </c>
+      <c r="D21">
+        <v>79</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43864.71597222222</v>
+      </c>
+      <c r="D22">
+        <v>74</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43864.967361111114</v>
+      </c>
+      <c r="D23">
+        <v>74</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43864.578472222223</v>
+      </c>
+      <c r="D24">
+        <v>60</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43865.043749999997</v>
+      </c>
+      <c r="D25">
+        <v>56</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43864.960416666669</v>
+      </c>
+      <c r="D26">
+        <v>55</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43865.015972222223</v>
+      </c>
+      <c r="D27">
+        <v>42</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43864.127083333333</v>
+      </c>
+      <c r="D28">
+        <v>34</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43865.092361111114</v>
+      </c>
+      <c r="D29">
+        <v>34</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43865.064583333333</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43862.786805555559</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43861.442361111112</v>
+      </c>
+      <c r="D32">
+        <v>19</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43863.043749999997</v>
+      </c>
+      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43863.995138888888</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43865.064583333333</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43863.099305555559</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43864.870138888888</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43861.638888888891</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43863.182638888888</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43864.904861111114</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43863.238194444442</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43864.904861111114</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43863.939583333333</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43863.939583333333</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43865.009027777778</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43863.147916666669</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43861.675694444442</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43864.161805555559</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43864.029861111114</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43865.002083333333</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43862.988194444442</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43862.092361111114</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07A80A7-51FD-486C-893A-9471788E4677}">
+  <dimension ref="A1:F70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43865.404861111114</v>
+      </c>
+      <c r="D2">
+        <v>13522</v>
+      </c>
+      <c r="E2">
+        <v>414</v>
+      </c>
+      <c r="F2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43865.543749999997</v>
+      </c>
+      <c r="D3">
+        <v>829</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43865.543749999997</v>
+      </c>
+      <c r="D4">
+        <v>813</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43865.495138888888</v>
+      </c>
+      <c r="D5">
+        <v>675</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43865.488194444442</v>
+      </c>
+      <c r="D6">
+        <v>593</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43865.231249999997</v>
+      </c>
+      <c r="D7">
+        <v>480</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43865.071527777778</v>
+      </c>
+      <c r="D8">
+        <v>476</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43865.349305555559</v>
+      </c>
+      <c r="D9">
+        <v>344</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43865.495138888888</v>
+      </c>
+      <c r="D10">
+        <v>308</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43865.071527777778</v>
+      </c>
+      <c r="D11">
+        <v>282</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43865.502083333333</v>
+      </c>
+      <c r="D12">
+        <v>275</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43865.356249999997</v>
+      </c>
+      <c r="D13">
+        <v>228</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43865.272916666669</v>
+      </c>
+      <c r="D14">
+        <v>219</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43865.509027777778</v>
+      </c>
+      <c r="D15">
+        <v>194</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43865.321527777778</v>
+      </c>
+      <c r="D16">
+        <v>155</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43865.522916666669</v>
+      </c>
+      <c r="D17">
+        <v>142</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43865.245138888888</v>
+      </c>
+      <c r="D18">
+        <v>139</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43865.370138888888</v>
+      </c>
+      <c r="D19">
+        <v>126</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43865.293749999997</v>
+      </c>
+      <c r="D20">
+        <v>119</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43865.481249999997</v>
+      </c>
+      <c r="D21">
+        <v>80</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43865.370138888888</v>
+      </c>
+      <c r="D22">
+        <v>77</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43865.522916666669</v>
+      </c>
+      <c r="D23">
+        <v>74</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43865.543749999997</v>
+      </c>
+      <c r="D24">
+        <v>67</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43865.446527777778</v>
+      </c>
+      <c r="D25">
+        <v>58</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43864.960416666669</v>
+      </c>
+      <c r="D26">
+        <v>55</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43865.015972222223</v>
+      </c>
+      <c r="D27">
+        <v>42</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43865.127083333333</v>
+      </c>
+      <c r="D28">
+        <v>35</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43865.092361111114</v>
+      </c>
+      <c r="D29">
+        <v>34</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43865.064583333333</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43862.786805555559</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43861.442361111112</v>
+      </c>
+      <c r="D32">
+        <v>19</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43863.043749999997</v>
+      </c>
+      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43865.377083333333</v>
+      </c>
+      <c r="D34">
+        <v>17</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43865.064583333333</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43863.099305555559</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43864.870138888888</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43865.196527777778</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43865.314583333333</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43861.638888888891</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43864.904861111114</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43863.238194444442</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43864.904861111114</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43863.939583333333</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43863.939583333333</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43865.009027777778</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43863.147916666669</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43861.675694444442</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43864.161805555559</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43864.029861111114</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43865.002083333333</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43862.988194444442</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43862.092361111114</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB24E49-260B-40EC-850B-61A46B589459}">
+  <dimension ref="A1:F71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43865.404861111114</v>
+      </c>
+      <c r="D2">
+        <v>13522</v>
+      </c>
+      <c r="E2">
+        <v>414</v>
+      </c>
+      <c r="F2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43865.543749999997</v>
+      </c>
+      <c r="D3">
+        <v>829</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43865.543749999997</v>
+      </c>
+      <c r="D4">
+        <v>813</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43865.495138888888</v>
+      </c>
+      <c r="D5">
+        <v>675</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43865.585416666669</v>
+      </c>
+      <c r="D6">
+        <v>593</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43865.231249999997</v>
+      </c>
+      <c r="D7">
+        <v>480</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43865.613194444442</v>
+      </c>
+      <c r="D8">
+        <v>476</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43865.349305555559</v>
+      </c>
+      <c r="D9">
+        <v>344</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43865.495138888888</v>
+      </c>
+      <c r="D10">
+        <v>308</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43865.071527777778</v>
+      </c>
+      <c r="D11">
+        <v>282</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43865.502083333333</v>
+      </c>
+      <c r="D12">
+        <v>275</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43865.356249999997</v>
+      </c>
+      <c r="D13">
+        <v>228</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43865.272916666669</v>
+      </c>
+      <c r="D14">
+        <v>219</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43865.509027777778</v>
+      </c>
+      <c r="D15">
+        <v>194</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43865.321527777778</v>
+      </c>
+      <c r="D16">
+        <v>155</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43865.522916666669</v>
+      </c>
+      <c r="D17">
+        <v>142</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43865.245138888888</v>
+      </c>
+      <c r="D18">
+        <v>139</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43865.370138888888</v>
+      </c>
+      <c r="D19">
+        <v>126</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43865.293749999997</v>
+      </c>
+      <c r="D20">
+        <v>119</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43865.592361111114</v>
+      </c>
+      <c r="D21">
+        <v>81</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43865.481249999997</v>
+      </c>
+      <c r="D22">
+        <v>80</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43865.522916666669</v>
+      </c>
+      <c r="D23">
+        <v>74</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43865.564583333333</v>
+      </c>
+      <c r="D24">
+        <v>67</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43865.446527777778</v>
+      </c>
+      <c r="D25">
+        <v>58</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43865.654861111114</v>
+      </c>
+      <c r="D26">
+        <v>57</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43865.015972222223</v>
+      </c>
+      <c r="D27">
+        <v>42</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43865.127083333333</v>
+      </c>
+      <c r="D28">
+        <v>35</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43865.092361111114</v>
+      </c>
+      <c r="D29">
+        <v>34</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43865.064583333333</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43865.647916666669</v>
+      </c>
+      <c r="D31">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43865.647916666669</v>
+      </c>
+      <c r="D32">
+        <v>24</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43865.696527777778</v>
+      </c>
+      <c r="D33">
+        <v>22</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43865.377083333333</v>
+      </c>
+      <c r="D34">
+        <v>17</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43865.647916666669</v>
+      </c>
+      <c r="D35">
+        <v>16</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43865.064583333333</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43864.870138888888</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43865.620138888888</v>
+      </c>
+      <c r="D38">
+        <v>11</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43865.196527777778</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43865.314583333333</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43864.904861111114</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43863.238194444442</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43865.703472222223</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43864.904861111114</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43863.939583333333</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43865.009027777778</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43863.147916666669</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43861.675694444442</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43864.161805555559</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43864.029861111114</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43865.654861111114</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43865.002083333333</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43862.988194444442</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43862.092361111114</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
         <v>0</v>
       </c>
     </row>

--- a/data/WHCV_JHU.xlsx
+++ b/data/WHCV_JHU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0CE706-04DC-439E-967D-384C054E8775}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C3044E-5C9D-45B7-A34F-E859FFD4B346}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="26" activeTab="32" xr2:uid="{C05C9B9F-81A4-419D-958C-8C1C2703C4D9}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="27" activeTab="33" xr2:uid="{C05C9B9F-81A4-419D-958C-8C1C2703C4D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan22_12am" sheetId="1" r:id="rId1"/>
@@ -46,6 +46,7 @@
     <sheet name="Feb03_940pm" sheetId="32" r:id="rId31"/>
     <sheet name="Feb04_8am" sheetId="33" r:id="rId32"/>
     <sheet name="Feb04_1150am" sheetId="34" r:id="rId33"/>
+    <sheet name="Feb04_10pm" sheetId="35" r:id="rId34"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3422" uniqueCount="92">
   <si>
     <t>Last Update</t>
   </si>
@@ -694,7 +695,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20766,7 +20767,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25488,8 +25489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB24E49-260B-40EC-850B-61A46B589459}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26864,12 +26865,1392 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53842AE5-7C2A-4321-968E-526F3E0F6CF3}">
+  <dimension ref="A1:F71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43865.988194444442</v>
+      </c>
+      <c r="D2">
+        <v>16678</v>
+      </c>
+      <c r="E2">
+        <v>479</v>
+      </c>
+      <c r="F2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43866.064583333333</v>
+      </c>
+      <c r="D3">
+        <v>895</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43866.085416666669</v>
+      </c>
+      <c r="D4">
+        <v>870</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43866.050694444442</v>
+      </c>
+      <c r="D5">
+        <v>764</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43866.071527777778</v>
+      </c>
+      <c r="D6">
+        <v>661</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43866.064583333333</v>
+      </c>
+      <c r="D7">
+        <v>548</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43866.050694444442</v>
+      </c>
+      <c r="D8">
+        <v>530</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43866.009027777778</v>
+      </c>
+      <c r="D9">
+        <v>366</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43866.113194444442</v>
+      </c>
+      <c r="D10">
+        <v>341</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43866.036805555559</v>
+      </c>
+      <c r="D11">
+        <v>301</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43866.043749999997</v>
+      </c>
+      <c r="D12">
+        <v>298</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43866.015972222223</v>
+      </c>
+      <c r="D13">
+        <v>233</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43865.356249999997</v>
+      </c>
+      <c r="D14">
+        <v>228</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43865.509027777778</v>
+      </c>
+      <c r="D15">
+        <v>194</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43866.057638888888</v>
+      </c>
+      <c r="D16">
+        <v>190</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43866.113194444442</v>
+      </c>
+      <c r="D17">
+        <v>165</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43866.029861111114</v>
+      </c>
+      <c r="D18">
+        <v>150</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43866.120138888888</v>
+      </c>
+      <c r="D19">
+        <v>135</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43865.974305555559</v>
+      </c>
+      <c r="D20">
+        <v>122</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43866.120138888888</v>
+      </c>
+      <c r="D21">
+        <v>91</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43865.592361111114</v>
+      </c>
+      <c r="D22">
+        <v>81</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43865.974305555559</v>
+      </c>
+      <c r="D23">
+        <v>81</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43865.564583333333</v>
+      </c>
+      <c r="D24">
+        <v>67</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43866.057638888888</v>
+      </c>
+      <c r="D25">
+        <v>64</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43865.654861111114</v>
+      </c>
+      <c r="D26">
+        <v>57</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43866.029861111114</v>
+      </c>
+      <c r="D27">
+        <v>54</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43866.078472222223</v>
+      </c>
+      <c r="D28">
+        <v>42</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43865.092361111114</v>
+      </c>
+      <c r="D29">
+        <v>34</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43866.085416666669</v>
+      </c>
+      <c r="D30">
+        <v>32</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43865.647916666669</v>
+      </c>
+      <c r="D31">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43865.647916666669</v>
+      </c>
+      <c r="D32">
+        <v>24</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43865.696527777778</v>
+      </c>
+      <c r="D33">
+        <v>22</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43866.106249999997</v>
+      </c>
+      <c r="D34">
+        <v>18</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43866.057638888888</v>
+      </c>
+      <c r="D35">
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43865.647916666669</v>
+      </c>
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43864.870138888888</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43865.620138888888</v>
+      </c>
+      <c r="D38">
+        <v>11</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43865.196527777778</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43865.314583333333</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43864.904861111114</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43863.238194444442</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43865.703472222223</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43864.904861111114</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43863.939583333333</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43865.009027777778</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43863.147916666669</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43861.675694444442</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43864.161805555559</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43864.029861111114</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43865.654861111114</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43865.002083333333</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43862.988194444442</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43862.092361111114</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A104B3DE-9A9B-421B-A4F9-8A9E667B6F57}">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27437,8 +28818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E89BAE0-521E-4F0F-A544-912C523E8781}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27448,7 +28829,7 @@
     <col min="3" max="3" width="14.77734375" customWidth="1"/>
     <col min="4" max="4" width="15.109375" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -28048,8 +29429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D1BB50-0032-468D-85CC-5CD82F0FF438}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29342,7 +30723,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29350,6 +30731,7 @@
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">

--- a/data/WHCV_JHU.xlsx
+++ b/data/WHCV_JHU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C3044E-5C9D-45B7-A34F-E859FFD4B346}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1F6780-DC9B-4753-9D45-3281C031931F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="27" activeTab="33" xr2:uid="{C05C9B9F-81A4-419D-958C-8C1C2703C4D9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="34" activeTab="36" xr2:uid="{C05C9B9F-81A4-419D-958C-8C1C2703C4D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan22_12am" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,9 @@
     <sheet name="Feb04_8am" sheetId="33" r:id="rId32"/>
     <sheet name="Feb04_1150am" sheetId="34" r:id="rId33"/>
     <sheet name="Feb04_10pm" sheetId="35" r:id="rId34"/>
+    <sheet name="Feb05_1220pm" sheetId="36" r:id="rId35"/>
+    <sheet name="Feb06_0118pm" sheetId="37" r:id="rId36"/>
+    <sheet name="Feb06_0805pm" sheetId="38" r:id="rId37"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3422" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3801" uniqueCount="93">
   <si>
     <t>Last Update</t>
   </si>
@@ -340,6 +343,9 @@
   </si>
   <si>
     <t>Belgium</t>
+  </si>
+  <si>
+    <t>Madison, WI</t>
   </si>
 </sst>
 </file>
@@ -26869,8 +26875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53842AE5-7C2A-4321-968E-526F3E0F6CF3}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28237,6 +28243,4185 @@
         <v>0</v>
       </c>
       <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27C52DA-ED63-4F03-A651-F37ED358943A}">
+  <dimension ref="A1:F71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43866.696527777778</v>
+      </c>
+      <c r="D2">
+        <v>16678</v>
+      </c>
+      <c r="E2">
+        <v>479</v>
+      </c>
+      <c r="F2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43866.557638888888</v>
+      </c>
+      <c r="D3">
+        <v>895</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43866.634027777778</v>
+      </c>
+      <c r="D4">
+        <v>895</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43866.627083333333</v>
+      </c>
+      <c r="D5">
+        <v>764</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43866.640972222223</v>
+      </c>
+      <c r="D6">
+        <v>661</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43866.064583333333</v>
+      </c>
+      <c r="D7">
+        <v>548</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43866.571527777778</v>
+      </c>
+      <c r="D8">
+        <v>530</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43866.384027777778</v>
+      </c>
+      <c r="D9">
+        <v>376</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43866.529861111114</v>
+      </c>
+      <c r="D10">
+        <v>341</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43866.425694444442</v>
+      </c>
+      <c r="D11">
+        <v>307</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43866.425694444442</v>
+      </c>
+      <c r="D12">
+        <v>301</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43866.238194444442</v>
+      </c>
+      <c r="D13">
+        <v>253</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43866.265972222223</v>
+      </c>
+      <c r="D14">
+        <v>243</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43866.522916666669</v>
+      </c>
+      <c r="D15">
+        <v>205</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43866.509027777778</v>
+      </c>
+      <c r="D16">
+        <v>190</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43866.363194444442</v>
+      </c>
+      <c r="D17">
+        <v>165</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43866.502083333333</v>
+      </c>
+      <c r="D18">
+        <v>150</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43866.474305555559</v>
+      </c>
+      <c r="D19">
+        <v>135</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43866.321527777778</v>
+      </c>
+      <c r="D20">
+        <v>124</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43866.696527777778</v>
+      </c>
+      <c r="D21">
+        <v>99</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43866.640972222223</v>
+      </c>
+      <c r="D22">
+        <v>89</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43866.640972222223</v>
+      </c>
+      <c r="D23">
+        <v>81</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43866.154861111114</v>
+      </c>
+      <c r="D24">
+        <v>69</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43866.522916666669</v>
+      </c>
+      <c r="D25">
+        <v>64</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43866.682638888888</v>
+      </c>
+      <c r="D26">
+        <v>62</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43866.460416666669</v>
+      </c>
+      <c r="D27">
+        <v>54</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43866.370138888888</v>
+      </c>
+      <c r="D28">
+        <v>42</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43865.092361111114</v>
+      </c>
+      <c r="D29">
+        <v>34</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43866.085416666669</v>
+      </c>
+      <c r="D30">
+        <v>32</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43866.689583333333</v>
+      </c>
+      <c r="D31">
+        <v>28</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43865.647916666669</v>
+      </c>
+      <c r="D32">
+        <v>25</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43865.696527777778</v>
+      </c>
+      <c r="D33">
+        <v>22</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43866.550694444442</v>
+      </c>
+      <c r="D34">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43866.647916666669</v>
+      </c>
+      <c r="D35">
+        <v>19</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43866.134027777778</v>
+      </c>
+      <c r="D36">
+        <v>17</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43864.870138888888</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43866.654861111114</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43865.620138888888</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43865.196527777778</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43864.904861111114</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43863.238194444442</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43865.703472222223</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43864.904861111114</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43863.939583333333</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43865.009027777778</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43863.147916666669</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43861.675694444442</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43864.161805555559</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43864.029861111114</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43865.654861111114</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43865.002083333333</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43862.988194444442</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43862.092361111114</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5C323E-F3AB-44D1-AE2D-8660F1AD613E}">
+  <dimension ref="A1:F72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:B69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43867.522916666669</v>
+      </c>
+      <c r="D2">
+        <v>19665</v>
+      </c>
+      <c r="E2">
+        <v>549</v>
+      </c>
+      <c r="F2">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43867.529861111114</v>
+      </c>
+      <c r="D3">
+        <v>970</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43867.453472222223</v>
+      </c>
+      <c r="D4">
+        <v>954</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43867.474305555559</v>
+      </c>
+      <c r="D5">
+        <v>851</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43867.550694444442</v>
+      </c>
+      <c r="D6">
+        <v>711</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43867.106249999997</v>
+      </c>
+      <c r="D7">
+        <v>600</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43867.564583333333</v>
+      </c>
+      <c r="D8">
+        <v>591</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43867.571527777778</v>
+      </c>
+      <c r="D9">
+        <v>400</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43867.335416666669</v>
+      </c>
+      <c r="D10">
+        <v>373</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43867.328472222223</v>
+      </c>
+      <c r="D11">
+        <v>347</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43867.335416666669</v>
+      </c>
+      <c r="D12">
+        <v>321</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43867.140972222223</v>
+      </c>
+      <c r="D13">
+        <v>274</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43867.286805555559</v>
+      </c>
+      <c r="D14">
+        <v>257</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43867.342361111114</v>
+      </c>
+      <c r="D15">
+        <v>227</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43867.460416666669</v>
+      </c>
+      <c r="D16">
+        <v>215</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43867.578472222223</v>
+      </c>
+      <c r="D17">
+        <v>173</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43867.175694444442</v>
+      </c>
+      <c r="D18">
+        <v>168</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43867.578472222223</v>
+      </c>
+      <c r="D19">
+        <v>157</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43867.404861111114</v>
+      </c>
+      <c r="D20">
+        <v>133</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43867.467361111114</v>
+      </c>
+      <c r="D21">
+        <v>106</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43867.606249999997</v>
+      </c>
+      <c r="D22">
+        <v>94</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43867.592361111114</v>
+      </c>
+      <c r="D23">
+        <v>90</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43867.265972222223</v>
+      </c>
+      <c r="D24">
+        <v>78</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43867.411805555559</v>
+      </c>
+      <c r="D25">
+        <v>71</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43866.682638888888</v>
+      </c>
+      <c r="D26">
+        <v>62</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43867.599305555559</v>
+      </c>
+      <c r="D27">
+        <v>59</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43867.099305555559</v>
+      </c>
+      <c r="D28">
+        <v>46</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43867.120138888888</v>
+      </c>
+      <c r="D29">
+        <v>45</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43867.092361111114</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43867.050694444442</v>
+      </c>
+      <c r="D31">
+        <v>36</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43866.689583333333</v>
+      </c>
+      <c r="D32">
+        <v>28</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43865.647916666669</v>
+      </c>
+      <c r="D33">
+        <v>25</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43867.613194444442</v>
+      </c>
+      <c r="D34">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43867.120138888888</v>
+      </c>
+      <c r="D35">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43867.092361111114</v>
+      </c>
+      <c r="D36">
+        <v>18</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43867.627083333333</v>
+      </c>
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43864.870138888888</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43866.654861111114</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43867.599305555559</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43867.050694444442</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43863.238194444442</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43867.134027777778</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43867.120138888888</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43864.904861111114</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43863.939583333333</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43866.731249999997</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43865.009027777778</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43863.147916666669</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43861.675694444442</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43864.161805555559</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43864.029861111114</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43865.654861111114</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43865.002083333333</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43862.988194444442</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43862.092361111114</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43866.911805555559</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169B9194-6229-4023-89A6-A47BFDC6CB60}">
+  <dimension ref="A1:F72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="O71" sqref="O71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43867.974305555559</v>
+      </c>
+      <c r="D2">
+        <v>22112</v>
+      </c>
+      <c r="E2">
+        <v>618</v>
+      </c>
+      <c r="F2">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43867.529861111114</v>
+      </c>
+      <c r="D3">
+        <v>970</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43867.453472222223</v>
+      </c>
+      <c r="D4">
+        <v>954</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43867.474305555559</v>
+      </c>
+      <c r="D5">
+        <v>851</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43867.550694444442</v>
+      </c>
+      <c r="D6">
+        <v>711</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43867.106249999997</v>
+      </c>
+      <c r="D7">
+        <v>600</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43867.564583333333</v>
+      </c>
+      <c r="D8">
+        <v>591</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43867.981249999997</v>
+      </c>
+      <c r="D9">
+        <v>411</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43867.335416666669</v>
+      </c>
+      <c r="D10">
+        <v>373</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43867.328472222223</v>
+      </c>
+      <c r="D11">
+        <v>347</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43868.036805555559</v>
+      </c>
+      <c r="D12">
+        <v>344</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43867.140972222223</v>
+      </c>
+      <c r="D13">
+        <v>274</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43868.002083333333</v>
+      </c>
+      <c r="D14">
+        <v>269</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43867.342361111114</v>
+      </c>
+      <c r="D15">
+        <v>227</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43867.460416666669</v>
+      </c>
+      <c r="D16">
+        <v>215</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43867.578472222223</v>
+      </c>
+      <c r="D17">
+        <v>173</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43868.022916666669</v>
+      </c>
+      <c r="D18">
+        <v>172</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43868.029861111114</v>
+      </c>
+      <c r="D19">
+        <v>171</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43867.404861111114</v>
+      </c>
+      <c r="D20">
+        <v>133</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43868.002083333333</v>
+      </c>
+      <c r="D21">
+        <v>106</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43867.960416666669</v>
+      </c>
+      <c r="D22">
+        <v>96</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43867.606249999997</v>
+      </c>
+      <c r="D23">
+        <v>94</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43867.988194444442</v>
+      </c>
+      <c r="D24">
+        <v>79</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43867.411805555559</v>
+      </c>
+      <c r="D25">
+        <v>71</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43868.029861111114</v>
+      </c>
+      <c r="D26">
+        <v>65</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43866.682638888888</v>
+      </c>
+      <c r="D27">
+        <v>62</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43867.099305555559</v>
+      </c>
+      <c r="D28">
+        <v>46</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43867.120138888888</v>
+      </c>
+      <c r="D29">
+        <v>45</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43867.092361111114</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43867.050694444442</v>
+      </c>
+      <c r="D31">
+        <v>36</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43866.689583333333</v>
+      </c>
+      <c r="D32">
+        <v>28</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43865.647916666669</v>
+      </c>
+      <c r="D33">
+        <v>25</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43867.613194444442</v>
+      </c>
+      <c r="D34">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43867.120138888888</v>
+      </c>
+      <c r="D35">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43867.092361111114</v>
+      </c>
+      <c r="D36">
+        <v>18</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43867.627083333333</v>
+      </c>
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43864.870138888888</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43866.654861111114</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43867.599305555559</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43867.050694444442</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43863.238194444442</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43867.134027777778</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43867.120138888888</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43864.904861111114</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43863.939583333333</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43866.731249999997</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43865.009027777778</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43863.147916666669</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43861.675694444442</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43864.161805555559</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43864.029861111114</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43865.654861111114</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43865.002083333333</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43862.988194444442</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43862.092361111114</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43866.911805555559</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
         <v>0</v>
       </c>
     </row>

--- a/data/WHCV_JHU.xlsx
+++ b/data/WHCV_JHU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1F6780-DC9B-4753-9D45-3281C031931F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F882570-C1E8-4E57-AA0D-B6FD257F7FEB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="34" activeTab="36" xr2:uid="{C05C9B9F-81A4-419D-958C-8C1C2703C4D9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="34" activeTab="37" xr2:uid="{C05C9B9F-81A4-419D-958C-8C1C2703C4D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan22_12am" sheetId="1" r:id="rId1"/>
@@ -50,6 +50,7 @@
     <sheet name="Feb05_1220pm" sheetId="36" r:id="rId35"/>
     <sheet name="Feb06_0118pm" sheetId="37" r:id="rId36"/>
     <sheet name="Feb06_0805pm" sheetId="38" r:id="rId37"/>
+    <sheet name="Feb07_0813pm" sheetId="39" r:id="rId38"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3801" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3930" uniqueCount="95">
   <si>
     <t>Last Update</t>
   </si>
@@ -346,6 +347,12 @@
   </si>
   <si>
     <t>Madison, WI</t>
+  </si>
+  <si>
+    <t>Cruise Ship</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -31035,8 +31042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169B9194-6229-4023-89A6-A47BFDC6CB60}">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="O71" sqref="O71"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32422,6 +32429,1426 @@
         <v>0</v>
       </c>
       <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E26188A-0C1B-4660-B631-F405D8FC2B6D}">
+  <dimension ref="A1:F73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="M87" sqref="M87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43868.585416666669</v>
+      </c>
+      <c r="D2">
+        <v>22112</v>
+      </c>
+      <c r="E2">
+        <v>618</v>
+      </c>
+      <c r="F2">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43868.425694444442</v>
+      </c>
+      <c r="D3">
+        <v>1034</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43868.481249999997</v>
+      </c>
+      <c r="D4">
+        <v>1006</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43868.585416666669</v>
+      </c>
+      <c r="D5">
+        <v>914</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43868.481249999997</v>
+      </c>
+      <c r="D6">
+        <v>772</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43868.217361111114</v>
+      </c>
+      <c r="D7">
+        <v>665</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43868.057638888888</v>
+      </c>
+      <c r="D8">
+        <v>661</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43868.502083333333</v>
+      </c>
+      <c r="D9">
+        <v>415</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43868.585416666669</v>
+      </c>
+      <c r="D10">
+        <v>408</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43868.481249999997</v>
+      </c>
+      <c r="D11">
+        <v>386</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43868.349305555559</v>
+      </c>
+      <c r="D12">
+        <v>344</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43868.140972222223</v>
+      </c>
+      <c r="D13">
+        <v>297</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43868.321527777778</v>
+      </c>
+      <c r="D14">
+        <v>277</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43868.259722222225</v>
+      </c>
+      <c r="D15">
+        <v>277</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43868.557638888888</v>
+      </c>
+      <c r="D16">
+        <v>224</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43868.349305555559</v>
+      </c>
+      <c r="D17">
+        <v>184</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43868.022916666669</v>
+      </c>
+      <c r="D18">
+        <v>172</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43868.502083333333</v>
+      </c>
+      <c r="D19">
+        <v>172</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43868.974305555559</v>
+      </c>
+      <c r="D20">
+        <v>138</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43868.522916666669</v>
+      </c>
+      <c r="D21">
+        <v>117</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43868.647916666669</v>
+      </c>
+      <c r="D22">
+        <v>99</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43868.522916666669</v>
+      </c>
+      <c r="D23">
+        <v>96</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43868.467361111114</v>
+      </c>
+      <c r="D24">
+        <v>81</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43868.238194444442</v>
+      </c>
+      <c r="D25">
+        <v>81</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43868.106249999997</v>
+      </c>
+      <c r="D26">
+        <v>67</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43868.029861111114</v>
+      </c>
+      <c r="D27">
+        <v>65</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43868.689583333333</v>
+      </c>
+      <c r="D28">
+        <v>61</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43868.467361111114</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43868.467361111114</v>
+      </c>
+      <c r="D30">
+        <v>43</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43868.071527777778</v>
+      </c>
+      <c r="D31">
+        <v>39</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43868.127083333333</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43868.495138888888</v>
+      </c>
+      <c r="D33">
+        <v>25</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43868.175694444442</v>
+      </c>
+      <c r="D34">
+        <v>25</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43865.647916666669</v>
+      </c>
+      <c r="D35">
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43868.127083333333</v>
+      </c>
+      <c r="D36">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43867.092361111114</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43867.627083333333</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43868.689583333333</v>
+      </c>
+      <c r="D39">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43868.384027777778</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43867.599305555559</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43867.050694444442</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43868.043749999997</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43863.238194444442</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43867.134027777778</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43868.238194444442</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43864.904861111114</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43868.745138888888</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43868.696527777778</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43868.772916666669</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43863.939583333333</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43865.009027777778</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43861.675694444442</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43864.161805555559</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43864.029861111114</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43865.654861111114</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43865.002083333333</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43862.988194444442</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43862.092361111114</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43866.911805555559</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
         <v>0</v>
       </c>
     </row>

--- a/data/WHCV_JHU.xlsx
+++ b/data/WHCV_JHU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F882570-C1E8-4E57-AA0D-B6FD257F7FEB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6361ADC0-1EBE-4939-B535-C74BAAEED55B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="34" activeTab="37" xr2:uid="{C05C9B9F-81A4-419D-958C-8C1C2703C4D9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="34" activeTab="38" xr2:uid="{C05C9B9F-81A4-419D-958C-8C1C2703C4D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan22_12am" sheetId="1" r:id="rId1"/>
@@ -51,6 +51,7 @@
     <sheet name="Feb06_0118pm" sheetId="37" r:id="rId36"/>
     <sheet name="Feb06_0805pm" sheetId="38" r:id="rId37"/>
     <sheet name="Feb07_0813pm" sheetId="39" r:id="rId38"/>
+    <sheet name="Feb08_0340pm" sheetId="40" r:id="rId39"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3930" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4059" uniqueCount="95">
   <si>
     <t>Last Update</t>
   </si>
@@ -32441,8 +32442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E26188A-0C1B-4660-B631-F405D8FC2B6D}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="M87" sqref="M87"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33713,6 +33714,1426 @@
       </c>
       <c r="F66">
         <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43862.092361111114</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43866.911805555559</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B157D7-C400-4797-838C-5777AC01C0FF}">
+  <dimension ref="A1:F73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43869.585416666669</v>
+      </c>
+      <c r="D2">
+        <v>24953</v>
+      </c>
+      <c r="E2">
+        <v>699</v>
+      </c>
+      <c r="F2">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43869.495138888888</v>
+      </c>
+      <c r="D3">
+        <v>1095</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43869.453472222223</v>
+      </c>
+      <c r="D4">
+        <v>1048</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43869.592361111114</v>
+      </c>
+      <c r="D5">
+        <v>981</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43869.536805555559</v>
+      </c>
+      <c r="D6">
+        <v>803</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43869.321527777778</v>
+      </c>
+      <c r="D7">
+        <v>733</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43869.057638888888</v>
+      </c>
+      <c r="D8">
+        <v>698</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43869.432638888888</v>
+      </c>
+      <c r="D9">
+        <v>439</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43869.460416666669</v>
+      </c>
+      <c r="D10">
+        <v>428</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43869.481249999997</v>
+      </c>
+      <c r="D11">
+        <v>416</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43869.640972222223</v>
+      </c>
+      <c r="D12">
+        <v>364</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43869.134027777778</v>
+      </c>
+      <c r="D13">
+        <v>315</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43869.168749999997</v>
+      </c>
+      <c r="D14">
+        <v>295</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43869.272916666669</v>
+      </c>
+      <c r="D15">
+        <v>286</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43869.342361111114</v>
+      </c>
+      <c r="D16">
+        <v>239</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43869.481249999997</v>
+      </c>
+      <c r="D17">
+        <v>195</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43869.425694444442</v>
+      </c>
+      <c r="D18">
+        <v>195</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43869.015972222223</v>
+      </c>
+      <c r="D19">
+        <v>183</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43869.363194444442</v>
+      </c>
+      <c r="D20">
+        <v>138</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43869.432638888888</v>
+      </c>
+      <c r="D21">
+        <v>124</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43869.495138888888</v>
+      </c>
+      <c r="D22">
+        <v>105</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43869.300694444442</v>
+      </c>
+      <c r="D23">
+        <v>104</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43869.279861111114</v>
+      </c>
+      <c r="D24">
+        <v>89</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43869.349305555559</v>
+      </c>
+      <c r="D25">
+        <v>88</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43869.634027777778</v>
+      </c>
+      <c r="D26">
+        <v>79</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43869.009027777778</v>
+      </c>
+      <c r="D27">
+        <v>69</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43868.689583333333</v>
+      </c>
+      <c r="D28">
+        <v>61</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43869.147916666669</v>
+      </c>
+      <c r="D29">
+        <v>52</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43869.384027777778</v>
+      </c>
+      <c r="D30">
+        <v>45</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43869.140972222223</v>
+      </c>
+      <c r="D31">
+        <v>42</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43869.536805555559</v>
+      </c>
+      <c r="D32">
+        <v>33</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43869.536805555559</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43869.002083333333</v>
+      </c>
+      <c r="D34">
+        <v>26</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43868.175694444442</v>
+      </c>
+      <c r="D35">
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43868.127083333333</v>
+      </c>
+      <c r="D36">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43867.092361111114</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43869.224305555559</v>
+      </c>
+      <c r="D38">
+        <v>17</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43869.432638888888</v>
+      </c>
+      <c r="D39">
+        <v>16</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43868.689583333333</v>
+      </c>
+      <c r="D40">
+        <v>13</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43869.307638888888</v>
+      </c>
+      <c r="D41">
+        <v>13</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43869.411805555559</v>
+      </c>
+      <c r="D42">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43867.599305555559</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43869.293749999997</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43868.043749999997</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43867.134027777778</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43868.238194444442</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43864.904861111114</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43868.745138888888</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43868.696527777778</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43868.772916666669</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43863.939583333333</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43865.009027777778</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43861.675694444442</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43864.161805555559</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43864.029861111114</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43865.654861111114</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43865.002083333333</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43862.988194444442</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43869.154861111114</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">

--- a/data/WHCV_JHU.xlsx
+++ b/data/WHCV_JHU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6361ADC0-1EBE-4939-B535-C74BAAEED55B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A0F420-EE2A-485A-BDC8-4BA8072FBB36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="34" activeTab="38" xr2:uid="{C05C9B9F-81A4-419D-958C-8C1C2703C4D9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="34" activeTab="39" xr2:uid="{C05C9B9F-81A4-419D-958C-8C1C2703C4D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan22_12am" sheetId="1" r:id="rId1"/>
@@ -52,6 +52,7 @@
     <sheet name="Feb06_0805pm" sheetId="38" r:id="rId37"/>
     <sheet name="Feb07_0813pm" sheetId="39" r:id="rId38"/>
     <sheet name="Feb08_0340pm" sheetId="40" r:id="rId39"/>
+    <sheet name="Feb08_1109pm" sheetId="41" r:id="rId40"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4059" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4188" uniqueCount="95">
   <si>
     <t>Last Update</t>
   </si>
@@ -33862,8 +33863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B157D7-C400-4797-838C-5777AC01C0FF}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F73"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35847,6 +35848,1426 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A68829-2E43-4E96-BA5B-D6611FA0763B}">
+  <dimension ref="A1:F73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43870.127083333333</v>
+      </c>
+      <c r="D2">
+        <v>27100</v>
+      </c>
+      <c r="E2">
+        <v>780</v>
+      </c>
+      <c r="F2">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43870.078472222223</v>
+      </c>
+      <c r="D3">
+        <v>1120</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43870.127083333333</v>
+      </c>
+      <c r="D4">
+        <v>1075</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43870.050694444442</v>
+      </c>
+      <c r="D5">
+        <v>1033</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43870.050694444442</v>
+      </c>
+      <c r="D6">
+        <v>838</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43870.057638888888</v>
+      </c>
+      <c r="D7">
+        <v>779</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43870.057638888888</v>
+      </c>
+      <c r="D8">
+        <v>740</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43870.147916666669</v>
+      </c>
+      <c r="D9">
+        <v>468</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43870.029861111114</v>
+      </c>
+      <c r="D10">
+        <v>446</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43870.092361111114</v>
+      </c>
+      <c r="D11">
+        <v>435</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43870.050694444442</v>
+      </c>
+      <c r="D12">
+        <v>386</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43870.154861111114</v>
+      </c>
+      <c r="D13">
+        <v>326</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43870.043749999997</v>
+      </c>
+      <c r="D14">
+        <v>307</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43870.064583333333</v>
+      </c>
+      <c r="D15">
+        <v>292</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43870.154861111114</v>
+      </c>
+      <c r="D16">
+        <v>250</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43870.127083333333</v>
+      </c>
+      <c r="D17">
+        <v>208</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43870.043749999997</v>
+      </c>
+      <c r="D18">
+        <v>206</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43870.022916666669</v>
+      </c>
+      <c r="D19">
+        <v>195</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43870.009027777778</v>
+      </c>
+      <c r="D20">
+        <v>140</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43870.078472222223</v>
+      </c>
+      <c r="D21">
+        <v>128</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43869.995138888888</v>
+      </c>
+      <c r="D22">
+        <v>115</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43869.495138888888</v>
+      </c>
+      <c r="D23">
+        <v>105</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43870.057638888888</v>
+      </c>
+      <c r="D24">
+        <v>96</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43870.168749999997</v>
+      </c>
+      <c r="D25">
+        <v>90</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43869.634027777778</v>
+      </c>
+      <c r="D26">
+        <v>79</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43870.036805555559</v>
+      </c>
+      <c r="D27">
+        <v>78</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43868.689583333333</v>
+      </c>
+      <c r="D28">
+        <v>61</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43870.099305555559</v>
+      </c>
+      <c r="D29">
+        <v>54</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43870.085416666669</v>
+      </c>
+      <c r="D30">
+        <v>45</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43870.057638888888</v>
+      </c>
+      <c r="D31">
+        <v>45</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43870.113194444442</v>
+      </c>
+      <c r="D32">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43869.536805555559</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43869.002083333333</v>
+      </c>
+      <c r="D34">
+        <v>26</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43868.175694444442</v>
+      </c>
+      <c r="D35">
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43870.106249999997</v>
+      </c>
+      <c r="D36">
+        <v>25</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43867.092361111114</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43869.224305555559</v>
+      </c>
+      <c r="D38">
+        <v>17</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43869.432638888888</v>
+      </c>
+      <c r="D39">
+        <v>16</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43868.689583333333</v>
+      </c>
+      <c r="D40">
+        <v>13</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43869.307638888888</v>
+      </c>
+      <c r="D41">
+        <v>13</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43869.411805555559</v>
+      </c>
+      <c r="D42">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43867.599305555559</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43869.293749999997</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43868.043749999997</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43867.134027777778</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43868.238194444442</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43864.904861111114</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43868.745138888888</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43868.696527777778</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43868.772916666669</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43863.939583333333</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43865.009027777778</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43861.675694444442</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43864.161805555559</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43864.029861111114</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43865.654861111114</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43865.002083333333</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43862.988194444442</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43869.154861111114</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43862.092361111114</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43866.911805555559</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E89BAE0-521E-4F0F-A544-912C523E8781}">
   <dimension ref="A1:F42"/>

--- a/data/WHCV_JHU.xlsx
+++ b/data/WHCV_JHU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A0F420-EE2A-485A-BDC8-4BA8072FBB36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D76B6B-1958-42E5-A626-35EEFFF3B22B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="34" activeTab="39" xr2:uid="{C05C9B9F-81A4-419D-958C-8C1C2703C4D9}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="36" activeTab="41" xr2:uid="{C05C9B9F-81A4-419D-958C-8C1C2703C4D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan22_12am" sheetId="1" r:id="rId1"/>
@@ -53,6 +53,8 @@
     <sheet name="Feb07_0813pm" sheetId="39" r:id="rId38"/>
     <sheet name="Feb08_0340pm" sheetId="40" r:id="rId39"/>
     <sheet name="Feb08_1109pm" sheetId="41" r:id="rId40"/>
+    <sheet name="Feb09_1030am" sheetId="42" r:id="rId41"/>
+    <sheet name="Feb09_1120pm" sheetId="43" r:id="rId42"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4188" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4446" uniqueCount="96">
   <si>
     <t>Last Update</t>
   </si>
@@ -355,6 +357,9 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Diamond Princess cruise ship</t>
   </si>
 </sst>
 </file>
@@ -33863,7 +33868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B157D7-C400-4797-838C-5777AC01C0FF}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -35852,8 +35857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A68829-2E43-4E96-BA5B-D6611FA0763B}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37241,6 +37246,2845 @@
       </c>
       <c r="F72">
         <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2165D18-8647-4C2F-9D09-EC5A8259EBFC}">
+  <dimension ref="A1:F73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43870.467361111114</v>
+      </c>
+      <c r="D2">
+        <v>27100</v>
+      </c>
+      <c r="E2">
+        <v>780</v>
+      </c>
+      <c r="F2">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43870.627083333333</v>
+      </c>
+      <c r="D3">
+        <v>1131</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43870.502083333333</v>
+      </c>
+      <c r="D4">
+        <v>1075</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43870.474305555559</v>
+      </c>
+      <c r="D5">
+        <v>1033</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43870.522916666669</v>
+      </c>
+      <c r="D6">
+        <v>838</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43870.397916666669</v>
+      </c>
+      <c r="D7">
+        <v>779</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43870.481249999997</v>
+      </c>
+      <c r="D8">
+        <v>740</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43870.432638888888</v>
+      </c>
+      <c r="D9">
+        <v>468</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43870.509027777778</v>
+      </c>
+      <c r="D10">
+        <v>450</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43870.627083333333</v>
+      </c>
+      <c r="D11">
+        <v>444</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43870.529861111114</v>
+      </c>
+      <c r="D12">
+        <v>386</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43870.154861111114</v>
+      </c>
+      <c r="D13">
+        <v>326</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43870.363194444442</v>
+      </c>
+      <c r="D14">
+        <v>307</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43870.272916666669</v>
+      </c>
+      <c r="D15">
+        <v>293</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43870.384027777778</v>
+      </c>
+      <c r="D16">
+        <v>250</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43870.127083333333</v>
+      </c>
+      <c r="D17">
+        <v>208</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43870.529861111114</v>
+      </c>
+      <c r="D18">
+        <v>206</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43870.022916666669</v>
+      </c>
+      <c r="D19">
+        <v>195</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43870.370138888888</v>
+      </c>
+      <c r="D20">
+        <v>141</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43870.564583333333</v>
+      </c>
+      <c r="D21">
+        <v>131</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43870.377083333333</v>
+      </c>
+      <c r="D22">
+        <v>115</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43870.515972222223</v>
+      </c>
+      <c r="D23">
+        <v>107</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43870.411805555559</v>
+      </c>
+      <c r="D24">
+        <v>99</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43870.168749999997</v>
+      </c>
+      <c r="D25">
+        <v>90</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43870.467361111114</v>
+      </c>
+      <c r="D26">
+        <v>79</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43870.377083333333</v>
+      </c>
+      <c r="D27">
+        <v>78</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43870.259027777778</v>
+      </c>
+      <c r="D28">
+        <v>64</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43870.099305555559</v>
+      </c>
+      <c r="D29">
+        <v>54</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43870.085416666669</v>
+      </c>
+      <c r="D30">
+        <v>45</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43870.057638888888</v>
+      </c>
+      <c r="D31">
+        <v>45</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43870.113194444442</v>
+      </c>
+      <c r="D32">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43869.536805555559</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43870.411805555559</v>
+      </c>
+      <c r="D34">
+        <v>29</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43870.259027777778</v>
+      </c>
+      <c r="D35">
+        <v>26</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43870.106249999997</v>
+      </c>
+      <c r="D36">
+        <v>25</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43867.092361111114</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43870.384027777778</v>
+      </c>
+      <c r="D38">
+        <v>18</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43869.432638888888</v>
+      </c>
+      <c r="D39">
+        <v>16</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43870.259027777778</v>
+      </c>
+      <c r="D40">
+        <v>14</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43869.307638888888</v>
+      </c>
+      <c r="D41">
+        <v>13</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43869.411805555559</v>
+      </c>
+      <c r="D42">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43867.599305555559</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43869.293749999997</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43868.043749999997</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43867.134027777778</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43868.238194444442</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43864.904861111114</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43868.745138888888</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43868.696527777778</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43868.772916666669</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43863.939583333333</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43865.009027777778</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43861.675694444442</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43864.161805555559</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43864.029861111114</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43865.654861111114</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43865.002083333333</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43862.988194444442</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43869.154861111114</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43862.092361111114</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43866.911805555559</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="1">
+        <v>43870.293749999997</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE17ACB-B5D2-4DCE-A95F-B9DD4CFF1A09}">
+  <dimension ref="A1:F73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43870.981249999997</v>
+      </c>
+      <c r="D2">
+        <v>29631</v>
+      </c>
+      <c r="E2">
+        <v>871</v>
+      </c>
+      <c r="F2">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43871.154861111114</v>
+      </c>
+      <c r="D3">
+        <v>1151</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43871.050694444442</v>
+      </c>
+      <c r="D4">
+        <v>1092</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43871.050694444442</v>
+      </c>
+      <c r="D5">
+        <v>1073</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43871.092361111114</v>
+      </c>
+      <c r="D6">
+        <v>879</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43871.085416666669</v>
+      </c>
+      <c r="D7">
+        <v>830</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43871.057638888888</v>
+      </c>
+      <c r="D8">
+        <v>771</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43871.071527777778</v>
+      </c>
+      <c r="D9">
+        <v>492</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43870.995138888888</v>
+      </c>
+      <c r="D10">
+        <v>468</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43871.029861111114</v>
+      </c>
+      <c r="D11">
+        <v>459</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43871.043749999997</v>
+      </c>
+      <c r="D12">
+        <v>405</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43871.134027777778</v>
+      </c>
+      <c r="D13">
+        <v>337</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43871.022916666669</v>
+      </c>
+      <c r="D14">
+        <v>331</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43871.064583333333</v>
+      </c>
+      <c r="D15">
+        <v>295</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43871.050694444442</v>
+      </c>
+      <c r="D16">
+        <v>261</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43871.015972222223</v>
+      </c>
+      <c r="D17">
+        <v>218</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43871.099305555559</v>
+      </c>
+      <c r="D18">
+        <v>213</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43871.085416666669</v>
+      </c>
+      <c r="D19">
+        <v>210</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43870.370138888888</v>
+      </c>
+      <c r="D20">
+        <v>141</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43871.029861111114</v>
+      </c>
+      <c r="D21">
+        <v>136</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43870.988194444442</v>
+      </c>
+      <c r="D22">
+        <v>119</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43871.064583333333</v>
+      </c>
+      <c r="D23">
+        <v>109</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43870.515972222223</v>
+      </c>
+      <c r="D24">
+        <v>107</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43871.154861111114</v>
+      </c>
+      <c r="D25">
+        <v>94</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43870.981249999997</v>
+      </c>
+      <c r="D26">
+        <v>83</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43871.022916666669</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43870.259027777778</v>
+      </c>
+      <c r="D28">
+        <v>64</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43871.113194444442</v>
+      </c>
+      <c r="D29">
+        <v>58</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43871.071527777778</v>
+      </c>
+      <c r="D30">
+        <v>49</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43871.050694444442</v>
+      </c>
+      <c r="D31">
+        <v>49</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43871.127083333333</v>
+      </c>
+      <c r="D32">
+        <v>43</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43871.002083333333</v>
+      </c>
+      <c r="D33">
+        <v>36</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43869.536805555559</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43871.127083333333</v>
+      </c>
+      <c r="D35">
+        <v>27</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43870.259027777778</v>
+      </c>
+      <c r="D36">
+        <v>26</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43867.092361111114</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43871.127083333333</v>
+      </c>
+      <c r="D38">
+        <v>18</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43870.384027777778</v>
+      </c>
+      <c r="D39">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43870.259027777778</v>
+      </c>
+      <c r="D40">
+        <v>14</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43871.127083333333</v>
+      </c>
+      <c r="D41">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43869.411805555559</v>
+      </c>
+      <c r="D42">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43867.599305555559</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43869.293749999997</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43870.814583333333</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43867.134027777778</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43862.758333333331</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43868.238194444442</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43864.904861111114</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43868.745138888888</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43868.696527777778</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43868.772916666669</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43863.939583333333</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43865.009027777778</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43861.675694444442</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43870.856249999997</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43870.793749999997</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43864.161805555559</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43864.029861111114</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43865.654861111114</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43865.002083333333</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43862.077777777777</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43861.34375</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43869.154861111114</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43862.092361111114</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43862.821527777778</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43866.911805555559</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43862.828472222223</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="1">
+        <v>43870.293749999997</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">

--- a/data/WHCV_JHU.xlsx
+++ b/data/WHCV_JHU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D76B6B-1958-42E5-A626-35EEFFF3B22B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555A86A6-504E-498C-B96D-CAAE2346A12A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="36" activeTab="41" xr2:uid="{C05C9B9F-81A4-419D-958C-8C1C2703C4D9}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="38" activeTab="44" xr2:uid="{C05C9B9F-81A4-419D-958C-8C1C2703C4D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan22_12am" sheetId="1" r:id="rId1"/>
@@ -55,6 +55,9 @@
     <sheet name="Feb08_1109pm" sheetId="41" r:id="rId40"/>
     <sheet name="Feb09_1030am" sheetId="42" r:id="rId41"/>
     <sheet name="Feb09_1120pm" sheetId="43" r:id="rId42"/>
+    <sheet name="Feb10_1030" sheetId="44" r:id="rId43"/>
+    <sheet name="Feb10_1930" sheetId="45" r:id="rId44"/>
+    <sheet name="Feb11_1050" sheetId="46" r:id="rId45"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4446" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4835" uniqueCount="97">
   <si>
     <t>Last Update</t>
   </si>
@@ -360,6 +363,9 @@
   </si>
   <si>
     <t>Diamond Princess cruise ship</t>
+  </si>
+  <si>
+    <t>San Diego County, CA</t>
   </si>
 </sst>
 </file>
@@ -38697,8 +38703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE17ACB-B5D2-4DCE-A95F-B9DD4CFF1A09}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40104,6 +40110,4284 @@
         <v>0</v>
       </c>
       <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03853312-3611-4A98-9C93-20DC10B0C08F}">
+  <dimension ref="A1:F73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43871.564606481479</v>
+      </c>
+      <c r="D2">
+        <v>29631</v>
+      </c>
+      <c r="E2">
+        <v>871</v>
+      </c>
+      <c r="F2">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43871.571550925924</v>
+      </c>
+      <c r="D3">
+        <v>1159</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43871.592499999999</v>
+      </c>
+      <c r="D4">
+        <v>1092</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43871.57849537037</v>
+      </c>
+      <c r="D5">
+        <v>1073</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43871.57849537037</v>
+      </c>
+      <c r="D6">
+        <v>879</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43871.307685185187</v>
+      </c>
+      <c r="D7">
+        <v>830</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43871.57849537037</v>
+      </c>
+      <c r="D8">
+        <v>771</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43871.585474537038</v>
+      </c>
+      <c r="D9">
+        <v>492</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43871.52988425926</v>
+      </c>
+      <c r="D10">
+        <v>473</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43871.397939814815</v>
+      </c>
+      <c r="D11">
+        <v>466</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43871.418773148151</v>
+      </c>
+      <c r="D12">
+        <v>405</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43871.134120370371</v>
+      </c>
+      <c r="D13">
+        <v>337</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43871.314641203702</v>
+      </c>
+      <c r="D14">
+        <v>331</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43871.252233796295</v>
+      </c>
+      <c r="D15">
+        <v>299</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43871.585474537038</v>
+      </c>
+      <c r="D16">
+        <v>261</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43871.418773148151</v>
+      </c>
+      <c r="D17">
+        <v>218</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43871.557708333334</v>
+      </c>
+      <c r="D18">
+        <v>213</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43871.585474537038</v>
+      </c>
+      <c r="D19">
+        <v>210</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43871.40488425926</v>
+      </c>
+      <c r="D20">
+        <v>149</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43871.397939814815</v>
+      </c>
+      <c r="D21">
+        <v>138</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43870.988217592596</v>
+      </c>
+      <c r="D22">
+        <v>119</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43871.522939814815</v>
+      </c>
+      <c r="D23">
+        <v>109</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43871.585474537038</v>
+      </c>
+      <c r="D24">
+        <v>108</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43871.599398148152</v>
+      </c>
+      <c r="D25">
+        <v>95</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43871.307685185187</v>
+      </c>
+      <c r="D26">
+        <v>83</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43871.585474537038</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43870.259155092594</v>
+      </c>
+      <c r="D28">
+        <v>64</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43871.113252314812</v>
+      </c>
+      <c r="D29">
+        <v>58</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43871.071550925924</v>
+      </c>
+      <c r="D30">
+        <v>49</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43871.050763888888</v>
+      </c>
+      <c r="D31">
+        <v>49</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43871.127175925925</v>
+      </c>
+      <c r="D32">
+        <v>43</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43871.425763888888</v>
+      </c>
+      <c r="D33">
+        <v>38</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43869.536817129629</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43871.127187500002</v>
+      </c>
+      <c r="D35">
+        <v>27</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43871.370150462964</v>
+      </c>
+      <c r="D36">
+        <v>26</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43867.092534722222</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43871.127187500002</v>
+      </c>
+      <c r="D38">
+        <v>18</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43870.384155092594</v>
+      </c>
+      <c r="D39">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43870.259155092594</v>
+      </c>
+      <c r="D40">
+        <v>14</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43871.127187500002</v>
+      </c>
+      <c r="D41">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43869.411817129629</v>
+      </c>
+      <c r="D42">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43867.599351851852</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43869.293935185182</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43870.814606481479</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43867.134282407409</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43862.758900462963</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43868.238229166665</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43864.90488425926</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43868.745162037034</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43868.696574074071</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43868.772939814815</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43863.939664351848</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43865.009097222224</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43861.676215277781</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43870.85628472222</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43870.79378472222</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43864.161828703705</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43864.02988425926</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43865.65488425926</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43861.344363425924</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43865.002210648148</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43861.344363425924</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43862.078240740739</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43861.344363425924</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43869.154895833337</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43862.092662037037</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43862.821562500001</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43862.828506944446</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43866.911828703705</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43862.828506944446</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="1">
+        <v>43870.293796296297</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="1">
+        <v>43862.821562500001</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B20109-4E7D-49CA-BC95-01DB751D24BE}">
+  <dimension ref="A1:F73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43871.981273148151</v>
+      </c>
+      <c r="D2">
+        <v>31728</v>
+      </c>
+      <c r="E2">
+        <v>974</v>
+      </c>
+      <c r="F2">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43871.571550925924</v>
+      </c>
+      <c r="D3">
+        <v>1159</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43871.592499999999</v>
+      </c>
+      <c r="D4">
+        <v>1092</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43871.57849537037</v>
+      </c>
+      <c r="D5">
+        <v>1073</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43871.57849537037</v>
+      </c>
+      <c r="D6">
+        <v>879</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43871.307685185187</v>
+      </c>
+      <c r="D7">
+        <v>830</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43871.57849537037</v>
+      </c>
+      <c r="D8">
+        <v>771</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43871.585474537038</v>
+      </c>
+      <c r="D9">
+        <v>492</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43871.988217592596</v>
+      </c>
+      <c r="D10">
+        <v>486</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43871.397939814815</v>
+      </c>
+      <c r="D11">
+        <v>466</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43871.418773148151</v>
+      </c>
+      <c r="D12">
+        <v>405</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43871.134120370371</v>
+      </c>
+      <c r="D13">
+        <v>337</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43871.314641203702</v>
+      </c>
+      <c r="D14">
+        <v>331</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43871.252233796295</v>
+      </c>
+      <c r="D15">
+        <v>299</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43871.585474537038</v>
+      </c>
+      <c r="D16">
+        <v>261</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43871.418773148151</v>
+      </c>
+      <c r="D17">
+        <v>218</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43871.557708333334</v>
+      </c>
+      <c r="D18">
+        <v>213</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43871.585474537038</v>
+      </c>
+      <c r="D19">
+        <v>210</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43871.40488425926</v>
+      </c>
+      <c r="D20">
+        <v>149</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43871.397939814815</v>
+      </c>
+      <c r="D21">
+        <v>138</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43871.668888888889</v>
+      </c>
+      <c r="D22">
+        <v>135</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43870.988217592596</v>
+      </c>
+      <c r="D23">
+        <v>119</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43871.522939814815</v>
+      </c>
+      <c r="D24">
+        <v>109</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43871.585474537038</v>
+      </c>
+      <c r="D25">
+        <v>108</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43871.599398148152</v>
+      </c>
+      <c r="D26">
+        <v>95</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43872.009074074071</v>
+      </c>
+      <c r="D27">
+        <v>86</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43872.01599537037</v>
+      </c>
+      <c r="D28">
+        <v>81</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43871.113252314812</v>
+      </c>
+      <c r="D29">
+        <v>58</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43871.071550925924</v>
+      </c>
+      <c r="D30">
+        <v>49</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43871.050763888888</v>
+      </c>
+      <c r="D31">
+        <v>49</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43871.793773148151</v>
+      </c>
+      <c r="D32">
+        <v>45</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43871.425763888888</v>
+      </c>
+      <c r="D33">
+        <v>38</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43869.536817129629</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43871.127187500002</v>
+      </c>
+      <c r="D35">
+        <v>27</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43871.897939814815</v>
+      </c>
+      <c r="D36">
+        <v>26</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43867.092534722222</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43871.127187500002</v>
+      </c>
+      <c r="D38">
+        <v>18</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43870.384155092594</v>
+      </c>
+      <c r="D39">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43870.259155092594</v>
+      </c>
+      <c r="D40">
+        <v>14</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43871.127187500002</v>
+      </c>
+      <c r="D41">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43869.411817129629</v>
+      </c>
+      <c r="D42">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43867.599351851852</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43871.793773148151</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43871.960520833331</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43870.814606481479</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43867.134282407409</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43862.758900462963</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43868.238229166665</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43864.90488425926</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43868.745162037034</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43868.696574074071</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43863.939664351848</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43865.009097222224</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43861.676215277781</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43870.85628472222</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43870.79378472222</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43864.161828703705</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43864.02988425926</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43865.65488425926</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43861.344363425924</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43865.002210648148</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43861.344363425924</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43862.078240740739</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43861.344363425924</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43869.154895833337</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43862.092662037037</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43862.821562500001</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43862.828506944446</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43866.911828703705</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43862.828506944446</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="1">
+        <v>43870.293796296297</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="1">
+        <v>43862.821562500001</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60551233-B18E-4036-8E57-C564E24C8AF2}">
+  <dimension ref="A1:F74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43872.585474537038</v>
+      </c>
+      <c r="D2">
+        <v>31728</v>
+      </c>
+      <c r="E2">
+        <v>974</v>
+      </c>
+      <c r="F2">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43872.585474537038</v>
+      </c>
+      <c r="D3">
+        <v>1177</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43872.536828703705</v>
+      </c>
+      <c r="D4">
+        <v>1117</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43872.585474537038</v>
+      </c>
+      <c r="D5">
+        <v>1105</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43872.536828703705</v>
+      </c>
+      <c r="D6">
+        <v>912</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43872.40488425926</v>
+      </c>
+      <c r="D7">
+        <v>860</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43872.585474537038</v>
+      </c>
+      <c r="D8">
+        <v>804</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43872.342430555553</v>
+      </c>
+      <c r="D9">
+        <v>515</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43872.363217592596</v>
+      </c>
+      <c r="D10">
+        <v>489</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43872.474351851852</v>
+      </c>
+      <c r="D11">
+        <v>487</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43872.474351851852</v>
+      </c>
+      <c r="D12">
+        <v>417</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43872.474351851852</v>
+      </c>
+      <c r="D13">
+        <v>360</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43872.127164351848</v>
+      </c>
+      <c r="D14">
+        <v>342</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43872.26599537037</v>
+      </c>
+      <c r="D15">
+        <v>303</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43872.585474537038</v>
+      </c>
+      <c r="D16">
+        <v>267</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43872.474351851852</v>
+      </c>
+      <c r="D17">
+        <v>239</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43872.252268518518</v>
+      </c>
+      <c r="D18">
+        <v>219</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43872.474351851852</v>
+      </c>
+      <c r="D19">
+        <v>215</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43872.391018518516</v>
+      </c>
+      <c r="D20">
+        <v>153</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43872.606273148151</v>
+      </c>
+      <c r="D21">
+        <v>144</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43871.668888888889</v>
+      </c>
+      <c r="D22">
+        <v>135</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43872.585474537038</v>
+      </c>
+      <c r="D23">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43872.536828703705</v>
+      </c>
+      <c r="D24">
+        <v>122</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43872.536828703705</v>
+      </c>
+      <c r="D25">
+        <v>111</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43872.592430555553</v>
+      </c>
+      <c r="D26">
+        <v>105</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43872.641018518516</v>
+      </c>
+      <c r="D27">
+        <v>86</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43872.335486111115</v>
+      </c>
+      <c r="D28">
+        <v>81</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43871.113252314812</v>
+      </c>
+      <c r="D29">
+        <v>58</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43872.384155092594</v>
+      </c>
+      <c r="D30">
+        <v>55</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43872.418842592589</v>
+      </c>
+      <c r="D31">
+        <v>53</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43872.40488425926</v>
+      </c>
+      <c r="D32">
+        <v>49</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43872.106273148151</v>
+      </c>
+      <c r="D33">
+        <v>45</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43869.536817129629</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43872.120162037034</v>
+      </c>
+      <c r="D35">
+        <v>28</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43872.120162037034</v>
+      </c>
+      <c r="D36">
+        <v>26</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43872.474351851852</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43872.13417824074</v>
+      </c>
+      <c r="D38">
+        <v>18</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43870.384155092594</v>
+      </c>
+      <c r="D39">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43872.120162037034</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43870.259155092594</v>
+      </c>
+      <c r="D41">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43869.411817129629</v>
+      </c>
+      <c r="D42">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43867.599351851852</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43871.793773148151</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43871.960520833331</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43870.814606481479</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43867.134282407409</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43862.758900462963</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43868.238229166665</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43864.90488425926</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43868.745162037034</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43868.696574074071</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43863.939664351848</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43865.009097222224</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43861.676215277781</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43870.85628472222</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43870.79378472222</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43864.161828703705</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43864.02988425926</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43865.65488425926</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43861.344363425924</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43865.002210648148</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43861.344363425924</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43862.078240740739</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43861.344363425924</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43869.154895833337</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43862.092662037037</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43862.821562500001</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43862.828506944446</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43866.911828703705</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43862.828506944446</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="1">
+        <v>43872.057696759257</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="1">
+        <v>43870.293796296297</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="1">
+        <v>43862.821562500001</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
         <v>0</v>
       </c>
     </row>

--- a/data/WHCV_JHU.xlsx
+++ b/data/WHCV_JHU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuz2\Documents\Projects\wuhancv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555A86A6-504E-498C-B96D-CAAE2346A12A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F538870-B66B-4385-8CAC-7BF2A7FAF3F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="38" activeTab="44" xr2:uid="{C05C9B9F-81A4-419D-958C-8C1C2703C4D9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="40" activeTab="46" xr2:uid="{C05C9B9F-81A4-419D-958C-8C1C2703C4D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan22_12am" sheetId="1" r:id="rId1"/>
@@ -58,6 +58,8 @@
     <sheet name="Feb10_1030" sheetId="44" r:id="rId43"/>
     <sheet name="Feb10_1930" sheetId="45" r:id="rId44"/>
     <sheet name="Feb11_1050" sheetId="46" r:id="rId45"/>
+    <sheet name="Feb11_2044" sheetId="47" r:id="rId46"/>
+    <sheet name="Feb12_1020" sheetId="48" r:id="rId47"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4835" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5097" uniqueCount="97">
   <si>
     <t>Last Update</t>
   </si>
@@ -42960,8 +42962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60551233-B18E-4036-8E57-C564E24C8AF2}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44215,6 +44217,2885 @@
       </c>
       <c r="F65">
         <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43869.154895833337</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43862.092662037037</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43862.821562500001</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43862.828506944446</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43866.911828703705</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43862.828506944446</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="1">
+        <v>43872.057696759257</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="1">
+        <v>43870.293796296297</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="1">
+        <v>43862.821562500001</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9948FFCC-FCE8-4050-9CFC-760F0D13F4FB}">
+  <dimension ref="A1:F74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43872.981273148151</v>
+      </c>
+      <c r="D2">
+        <v>33366</v>
+      </c>
+      <c r="E2">
+        <v>1068</v>
+      </c>
+      <c r="F2">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43873.057708333334</v>
+      </c>
+      <c r="D3">
+        <v>1219</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43873.02988425926</v>
+      </c>
+      <c r="D4">
+        <v>1135</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43873.057708333334</v>
+      </c>
+      <c r="D5">
+        <v>1131</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43873.071550925924</v>
+      </c>
+      <c r="D6">
+        <v>946</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43873.050787037035</v>
+      </c>
+      <c r="D7">
+        <v>889</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43873.057708333334</v>
+      </c>
+      <c r="D8">
+        <v>844</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43873.057708333334</v>
+      </c>
+      <c r="D9">
+        <v>543</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43872.995162037034</v>
+      </c>
+      <c r="D10">
+        <v>505</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43873.071550925924</v>
+      </c>
+      <c r="D11">
+        <v>497</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43873.043807870374</v>
+      </c>
+      <c r="D12">
+        <v>436</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43873.009340277778</v>
+      </c>
+      <c r="D13">
+        <v>378</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43872.127164351848</v>
+      </c>
+      <c r="D14">
+        <v>342</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43873.009340277778</v>
+      </c>
+      <c r="D15">
+        <v>306</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43873.036828703705</v>
+      </c>
+      <c r="D16">
+        <v>272</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43873.002222222225</v>
+      </c>
+      <c r="D17">
+        <v>251</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43873.022939814815</v>
+      </c>
+      <c r="D18">
+        <v>222</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43872.252268518518</v>
+      </c>
+      <c r="D19">
+        <v>219</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43873.071550925924</v>
+      </c>
+      <c r="D20">
+        <v>154</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43873.022939814815</v>
+      </c>
+      <c r="D21">
+        <v>151</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43871.668888888889</v>
+      </c>
+      <c r="D22">
+        <v>135</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43873.050787037035</v>
+      </c>
+      <c r="D23">
+        <v>131</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43872.981273148151</v>
+      </c>
+      <c r="D24">
+        <v>124</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43873.02988425926</v>
+      </c>
+      <c r="D25">
+        <v>116</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43872.967418981483</v>
+      </c>
+      <c r="D26">
+        <v>106</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43872.641018518516</v>
+      </c>
+      <c r="D27">
+        <v>86</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43873.043807870374</v>
+      </c>
+      <c r="D28">
+        <v>83</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43873.071550925924</v>
+      </c>
+      <c r="D29">
+        <v>59</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43871.113252314812</v>
+      </c>
+      <c r="D30">
+        <v>58</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43872.418842592589</v>
+      </c>
+      <c r="D31">
+        <v>53</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43872.40488425926</v>
+      </c>
+      <c r="D32">
+        <v>49</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43872.696597222224</v>
+      </c>
+      <c r="D33">
+        <v>47</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43872.779907407406</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43873.002222222225</v>
+      </c>
+      <c r="D35">
+        <v>28</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43872.120162037034</v>
+      </c>
+      <c r="D36">
+        <v>26</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43872.474351851852</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43872.13417824074</v>
+      </c>
+      <c r="D38">
+        <v>18</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43870.384155092594</v>
+      </c>
+      <c r="D39">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43872.814618055556</v>
+      </c>
+      <c r="D40">
+        <v>16</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43872.696597222224</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43869.411817129629</v>
+      </c>
+      <c r="D42">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43867.599351851852</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43871.793773148151</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43873.022939814815</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43870.814606481479</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43867.134282407409</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43862.758900462963</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43868.238229166665</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43864.90488425926</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43868.745162037034</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43868.696574074071</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43863.939664351848</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43865.009097222224</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43861.676215277781</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43870.85628472222</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43870.79378472222</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43864.161828703705</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43864.02988425926</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43865.65488425926</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43861.344363425924</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43865.002210648148</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43873.002222222225</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43862.078240740739</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43861.344363425924</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43869.154895833337</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43862.092662037037</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43862.821562500001</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43862.828506944446</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43866.911828703705</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43862.828506944446</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="1">
+        <v>43872.057696759257</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="1">
+        <v>43870.293796296297</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="1">
+        <v>43862.821562500001</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94265C66-4BA5-47B6-8A53-CA74E2B9060F}">
+  <dimension ref="A1:F74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="6" width="10.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43873.592453703706</v>
+      </c>
+      <c r="D2">
+        <v>33366</v>
+      </c>
+      <c r="E2">
+        <v>1068</v>
+      </c>
+      <c r="F2">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43873.516076388885</v>
+      </c>
+      <c r="D3">
+        <v>1219</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43873.592453703706</v>
+      </c>
+      <c r="D4">
+        <v>1135</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43873.425925925927</v>
+      </c>
+      <c r="D5">
+        <v>1131</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43873.529895833337</v>
+      </c>
+      <c r="D6">
+        <v>946</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43873.425925925927</v>
+      </c>
+      <c r="D7">
+        <v>889</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43873.057708333334</v>
+      </c>
+      <c r="D8">
+        <v>844</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43873.592453703706</v>
+      </c>
+      <c r="D9">
+        <v>543</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43873.370173611111</v>
+      </c>
+      <c r="D10">
+        <v>509</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43873.467418981483</v>
+      </c>
+      <c r="D11">
+        <v>497</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43873.529895833337</v>
+      </c>
+      <c r="D12">
+        <v>436</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43873.592453703706</v>
+      </c>
+      <c r="D13">
+        <v>378</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43873.113229166665</v>
+      </c>
+      <c r="D14">
+        <v>352</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43873.266064814816</v>
+      </c>
+      <c r="D15">
+        <v>311</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43873.495162037034</v>
+      </c>
+      <c r="D16">
+        <v>272</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43873.467418981483</v>
+      </c>
+      <c r="D17">
+        <v>251</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43873.467418981483</v>
+      </c>
+      <c r="D18">
+        <v>225</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43873.627141203702</v>
+      </c>
+      <c r="D19">
+        <v>222</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43873.183078703703</v>
+      </c>
+      <c r="D20">
+        <v>175</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43873.40488425926</v>
+      </c>
+      <c r="D21">
+        <v>157</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43873.592453703706</v>
+      </c>
+      <c r="D22">
+        <v>154</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43873.40488425926</v>
+      </c>
+      <c r="D23">
+        <v>133</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43873.42596064815</v>
+      </c>
+      <c r="D24">
+        <v>124</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43873.564606481479</v>
+      </c>
+      <c r="D25">
+        <v>116</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43873.627141203702</v>
+      </c>
+      <c r="D26">
+        <v>112</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43873.627141203702</v>
+      </c>
+      <c r="D27">
+        <v>86</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43873.592453703706</v>
+      </c>
+      <c r="D28">
+        <v>83</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43873.467418981483</v>
+      </c>
+      <c r="D29">
+        <v>60</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43873.071550925924</v>
+      </c>
+      <c r="D30">
+        <v>59</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43873.467418981483</v>
+      </c>
+      <c r="D31">
+        <v>58</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43873.411828703705</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43872.696597222224</v>
+      </c>
+      <c r="D33">
+        <v>47</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43872.779907407406</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43873.113229166665</v>
+      </c>
+      <c r="D35">
+        <v>28</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43873.613229166665</v>
+      </c>
+      <c r="D36">
+        <v>28</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43873.335486111115</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43872.13417824074</v>
+      </c>
+      <c r="D38">
+        <v>18</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43870.384155092594</v>
+      </c>
+      <c r="D39">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43872.814618055556</v>
+      </c>
+      <c r="D40">
+        <v>16</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43872.696597222224</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43869.411817129629</v>
+      </c>
+      <c r="D42">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43873.411828703705</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43871.793773148151</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43873.022939814815</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43870.814606481479</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43867.134282407409</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43862.758900462963</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43868.238229166665</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43864.90488425926</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43868.745162037034</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43873.321550925924</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43863.939664351848</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43865.009097222224</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43873.613229166665</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43870.85628472222</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43870.79378472222</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43864.161828703705</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43864.02988425926</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43865.65488425926</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43873.321550925924</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43865.002210648148</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43873.002222222225</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43873.27988425926</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43873.613229166665</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
